--- a/biology/Zoologie/Faverolles_allemande/Faverolles_allemande.xlsx
+++ b/biology/Zoologie/Faverolles_allemande/Faverolles_allemande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La faverolles allemande, anciennement faverolles foncée est une race de poule domestique issue d'une sélection divergente de la faverolles qui est une race française.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille pleine de tempérament, pentadactyle, avec corps plein, large, sans lourdeur, à l'ossature fine, au port mi-haut, à l'emplumage abondant, à la barbe pleine, et aux tarses emplumés. Cette race est très familière.
 Elle pond ~ 150 œufs par an.
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1912, cette appellation est utilisée pour la sélection allemande de la faverolles française. 
 La naine a été créée en Allemagne, exposée pour la première fois en 1929.
@@ -576,7 +592,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Crête : simple.
 Oreillons : dissimulés par la barbe.
